--- a/medicine/Enfance/Sara_Bergmark_Elfgren/Sara_Bergmark_Elfgren.xlsx
+++ b/medicine/Enfance/Sara_Bergmark_Elfgren/Sara_Bergmark_Elfgren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sara Bergmark Elfgren, née le 13 mars 1980 à Stockholm, est une écrivaine suédoise de fantasy.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier roman de Sara Bergmark Elfgren, Le Cercle des jeunes élues, écrit en collaboration avec Mats Strandberg (en), a été publié en 2011 par Rabén &amp; Sjögren[1]. Il a été nommé pour le prix August dans la catégorie littérature jeunesse[2].
-Sara Bergmark Elfgren a travaillé comme scénariste pour la télévision et le cinéma[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier roman de Sara Bergmark Elfgren, Le Cercle des jeunes élues, écrit en collaboration avec Mats Strandberg (en), a été publié en 2011 par Rabén &amp; Sjögren. Il a été nommé pour le prix August dans la catégorie littérature jeunesse.
+Sara Bergmark Elfgren a travaillé comme scénariste pour la télévision et le cinéma.
 </t>
         </is>
       </c>
@@ -543,11 +557,47 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vei (2021) au Scénario et Karl Johnsson au dessin, Ankama.
-Trilogie The Circle
-Cette trilogie a été écrite à quatre mains avec Mats Strandberg (en).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vei (2021) au Scénario et Karl Johnsson au dessin, Ankama.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sara_Bergmark_Elfgren</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sara_Bergmark_Elfgren</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Trilogie The Circle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette trilogie a été écrite à quatre mains avec Mats Strandberg (en).
 Le Cercle des jeunes élues, Jean-Claude Lattès, 2013 ((sv) Cirkeln, 2011), trad. Sabrina Ericson  (ISBN 978-2709643924)Réédition sous le titre Les Élues, Pocket, coll. « Pocket Science-fiction », 2016  (ISBN 978-2266244923)
 Feu, Fleuve, 2016 ((sv) Eld, 2012), trad. Frédéric Fourreau  (ISBN 978-2265114609)
 (sv) Nyckeln, 2013</t>
